--- a/.idea/TTD  26-05-23 1.0.0.23.xlsx
+++ b/.idea/TTD  26-05-23 1.0.0.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opleidingen cursusen\NOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD85D72-8026-4182-9ABB-568BC8E2DF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C41777-63EA-4377-85CA-21BCF5B72F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCB4370-CD87-4B9A-9DAB-CBDAC08F1A27}"/>
   </bookViews>
@@ -36,27 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>H7 tm 8  lezen</t>
-  </si>
-  <si>
-    <t>H7 tm 8 samenvatten + opdrachten maken</t>
-  </si>
-  <si>
-    <t>Box model door lezen en samenvatten</t>
-  </si>
-  <si>
-    <t>H 2 tm 7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>5 tm 7 lezen</t>
-  </si>
-  <si>
-    <t>2 tm 7 samen vatten en uitbreiden.</t>
-  </si>
-  <si>
-    <t>Video les 2 css overnamen</t>
   </si>
   <si>
     <t xml:space="preserve">TTD </t>
@@ -74,119 +56,37 @@
     <t>II</t>
   </si>
   <si>
-    <t>pdf copieren</t>
+    <t>finacianeele sheet</t>
   </si>
   <si>
-    <t>github aan maken met samenvatingen</t>
+    <t>sofware design en documentatie samenvating afmaken</t>
   </si>
   <si>
-    <t>III</t>
+    <t>H7 samenvatten + opdrachten maken</t>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Git samen vatten</t>
-    </r>
+    <t>H8 samenvatten + opdrachten maken</t>
   </si>
   <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>I  huiswerk les 2 afmaken (webshop) en inleveren</t>
-    </r>
+    <t>back</t>
   </si>
   <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Huiswerk front</t>
-    </r>
+    <t>front</t>
   </si>
   <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Huiswerk back</t>
-    </r>
+    <t>huiswerk les 2 afmaken (webshop) en inleveren</t>
+  </si>
+  <si>
+    <t>chuck 2 kijken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,12 +129,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -288,10 +188,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -307,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -319,9 +220,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -639,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BD38B-BB68-4B09-A7E4-89FA095C31E6}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -651,12 +555,14 @@
     <col min="3" max="3" width="77.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="9"/>
     <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C1" s="6" t="str">
         <f>B2&amp;" "&amp;TEXT(C2,"dddd, dd-mm-jj")</f>
-        <v>TTD  vrijdag, 26-05-23</v>
+        <v>TTD  maandag, 29-05-23</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -665,16 +571,16 @@
     <row r="2" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -682,47 +588,50 @@
         <f>IF(C3&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="I3" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
-        <f>IF(C4&gt;0,MAX($B$3:B3)+1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="13"/>
+        <f ca="1">IF(C4&gt;0,MAX($B$3:B15)+1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="I4" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <f>IF(C5&gt;0,MAX($B$3:B4)+1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
+        <f>IF(C5&gt;0,MAX($B$3:B3)+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="I5" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
-        <f>IF(C6&gt;0,MAX($B$3:B5)+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
+        <f ca="1">IF(C6&gt;0,MAX($B$3:B5)+1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="I6" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -731,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -740,47 +649,43 @@
         <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f>IF(C9&gt;0,MAX($B$3:B8)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>IF(C10&gt;0,MAX($B$3:B9)+1,0)</f>
         <v>0</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>IF(C11&gt;0,MAX($B$3:B10)+1,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="I11" s="8" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <f>IF(C12&gt;0,MAX($B$3:B11)+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>3</v>
+        <f ca="1">IF(C12&gt;0,MAX($B$3:B11)+1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="I12" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -788,9 +693,6 @@
         <f>IF(C13&gt;0,MAX($B$3:B12)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
@@ -798,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -807,112 +709,117 @@
         <v>0</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f>IF(C16&gt;0,MAX($B$3:B15)+1,0)</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f>IF(C17&gt;0,MAX($B$3:B16)+1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f>IF(C18&gt;0,MAX($B$3:B17)+1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="K18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f>IF(C19&gt;0,MAX($B$3:B18)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f>IF(C20&gt;0,MAX($B$3:B19)+1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f>IF(C21&gt;0,MAX($B$3:B20)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f>IF(C22&gt;0,MAX($B$3:B21)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <f>IF(C23&gt;0,MAX($B$3:B22)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <f>IF(C24&gt;0,MAX($B$3:B23)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f>IF(C25&gt;0,MAX($B$3:B24)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <f>IF(C26&gt;0,MAX($B$3:B25)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <f>IF(C27&gt;0,MAX($B$3:B26)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f>IF(C28&gt;0,MAX($B$3:B27)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f>IF(C29&gt;0,MAX($B$3:B28)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f>IF(C30&gt;0,MAX($B$3:B29)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f>IF(C31&gt;0,MAX($B$3:B30)+1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f>IF(C32&gt;0,MAX($B$3:B31)+1,0)</f>
         <v>0</v>
@@ -1630,7 +1537,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A16:XFD1048576 A3:B15 E3:XFD15 A1:XFD1 A2:H2 J2:XFD2">
+  <conditionalFormatting sqref="A16:XFD1048576 A1:XFD1 A2:H2 J2:XFD4 C3:I4 A3:B15 E4:XFD15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
